--- a/generated-files/CityTemplate.xlsx
+++ b/generated-files/CityTemplate.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3041B6B7-84F7-49CC-BCB7-BA77C6973B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="42045" yWindow="-16770" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CityTemplate" r:id="rId3" sheetId="1"/>
+    <sheet name="CityTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>城市模板ID</t>
   </si>
   <si>
-    <t>cityTemplateId</t>
-  </si>
-  <si>
     <t>城市名称</t>
   </si>
   <si>
@@ -78,18 +83,279 @@
   </si>
   <si>
     <t>iconUrl</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>东汉时期的都城</t>
+  </si>
+  <si>
+    <t>(135.23,45.55)</t>
+  </si>
+  <si>
+    <t>CAPITAL</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_1.png</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>江南重镇</t>
+  </si>
+  <si>
+    <t>(115.12,48.12)</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_2.png</t>
+  </si>
+  <si>
+    <t>许昌</t>
+  </si>
+  <si>
+    <t>曹魏的核心城市</t>
+  </si>
+  <si>
+    <t>(140.33,42.22)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_3.png</t>
+  </si>
+  <si>
+    <t>江陵</t>
+  </si>
+  <si>
+    <t>长江中游的重要城市</t>
+  </si>
+  <si>
+    <t>(160.12,41.77)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_4.png</t>
+  </si>
+  <si>
+    <t>寿春</t>
+  </si>
+  <si>
+    <t>魏国的战略要地</t>
+  </si>
+  <si>
+    <t>(152.44,43.89)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_5.png</t>
+  </si>
+  <si>
+    <t>江夏</t>
+  </si>
+  <si>
+    <t>长江流域的军事重镇</t>
+  </si>
+  <si>
+    <t>(122.58,46.25)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_6.png</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>蜀汉的政治中心</t>
+  </si>
+  <si>
+    <t>(98.15,35.65)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_7.png</t>
+  </si>
+  <si>
+    <t>汉中</t>
+  </si>
+  <si>
+    <t>蜀汉的北部屏障</t>
+  </si>
+  <si>
+    <t>(105.34,32.45)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_8.png</t>
+  </si>
+  <si>
+    <t>长安</t>
+  </si>
+  <si>
+    <t>曹魏的西北要塞</t>
+  </si>
+  <si>
+    <t>(130.12,38.88)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_9.png</t>
+  </si>
+  <si>
+    <t>邺城</t>
+  </si>
+  <si>
+    <t>魏国的军事重镇</t>
+  </si>
+  <si>
+    <t>(140.90,45.67)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_10.png</t>
+  </si>
+  <si>
+    <t>建业</t>
+  </si>
+  <si>
+    <t>吴国的都城</t>
+  </si>
+  <si>
+    <t>(128.34,48.11)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_11.png</t>
+  </si>
+  <si>
+    <t>朔方</t>
+  </si>
+  <si>
+    <t>魏国的北方屏障</t>
+  </si>
+  <si>
+    <t>(115.12,50.12)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_12.png</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>魏国的粮仓</t>
+  </si>
+  <si>
+    <t>(145.67,44.78)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_13.png</t>
+  </si>
+  <si>
+    <t>南皮</t>
+  </si>
+  <si>
+    <t>曹魏的重要军事基地</t>
+  </si>
+  <si>
+    <t>(148.23,43.89)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_14.png</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>(143.22,46.11)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_15.png</t>
+  </si>
+  <si>
+    <t>新野</t>
+  </si>
+  <si>
+    <t>三国时期的重要城镇</t>
+  </si>
+  <si>
+    <t>(150.77,47.22)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_16.png</t>
+  </si>
+  <si>
+    <t>宛城</t>
+  </si>
+  <si>
+    <t>蜀汉的南部要塞</t>
+  </si>
+  <si>
+    <t>(106.34,35.99)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_17.png</t>
+  </si>
+  <si>
+    <t>樊城</t>
+  </si>
+  <si>
+    <t>吴国的长江要塞</t>
+  </si>
+  <si>
+    <t>(120.99,41.22)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_18.png</t>
+  </si>
+  <si>
+    <t>襄阳</t>
+  </si>
+  <si>
+    <t>魏国的重要军事要地</t>
+  </si>
+  <si>
+    <t>(139.34,42.88)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_19.png</t>
+  </si>
+  <si>
+    <t>广陵</t>
+  </si>
+  <si>
+    <t>吴国的商业中心</t>
+  </si>
+  <si>
+    <t>(129.45,44.77)</t>
+  </si>
+  <si>
+    <t>http://example.com/icon_20.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,7 +365,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -111,94 +377,1141 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="3" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>500</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H4" s="1">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1">
+        <v>450</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>110</v>
+      </c>
+      <c r="I5" s="1">
+        <v>600</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2900</v>
+      </c>
+      <c r="H6" s="1">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1">
+        <v>480</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3050</v>
+      </c>
+      <c r="H7" s="1">
+        <v>105</v>
+      </c>
+      <c r="I7" s="1">
+        <v>520</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2750</v>
+      </c>
+      <c r="H8" s="1">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1">
+        <v>430</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="1">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1">
+        <v>700</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2950</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1">
+        <v>480</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>110</v>
+      </c>
+      <c r="I11" s="1">
+        <v>600</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1">
+        <v>540</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3400</v>
+      </c>
+      <c r="H13" s="1">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1">
+        <v>650</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H14" s="1">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1">
+        <v>420</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1">
+        <v>450</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1">
+        <v>500</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2950</v>
+      </c>
+      <c r="H17" s="1">
+        <v>95</v>
+      </c>
+      <c r="I17" s="1">
+        <v>480</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2850</v>
+      </c>
+      <c r="H18" s="1">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1">
+        <v>470</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>105</v>
+      </c>
+      <c r="I19" s="1">
+        <v>540</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H20" s="1">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1">
+        <v>460</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>21</v>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>110</v>
+      </c>
+      <c r="I21" s="1">
+        <v>600</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2750</v>
+      </c>
+      <c r="H22" s="1">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1">
+        <v>450</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{7F127214-7707-4C45-BCC8-D8E11E7BC29F}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{128E2EA8-BC4E-46D9-8E30-D7AE1A14960D}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{C4523541-6780-4ACD-A18F-533FF759E5E1}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{07B815CC-A57E-450E-A34E-7E438BB5446D}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{CB943DA2-5B90-4A50-854F-AB8D0933CCFB}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{F45C6DE2-6E45-4F5C-A83E-2AC08DBEA769}"/>
+    <hyperlink ref="K9" r:id="rId7" xr:uid="{D91609B2-FC1D-4923-92EE-76C8808B4F8B}"/>
+    <hyperlink ref="K10" r:id="rId8" xr:uid="{1B8F73D9-C901-47B5-95EC-EF833DC7BC5E}"/>
+    <hyperlink ref="K11" r:id="rId9" xr:uid="{62812165-114C-42C6-881D-62D359C85D37}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{B4290F2C-EEF4-4747-99F3-52B3BC34C347}"/>
+    <hyperlink ref="K13" r:id="rId11" xr:uid="{42240CBC-D7B0-4035-A114-A2B41795186B}"/>
+    <hyperlink ref="K14" r:id="rId12" xr:uid="{D059385C-F16B-4C9B-ACA2-F69413D1D205}"/>
+    <hyperlink ref="K15" r:id="rId13" xr:uid="{7CE6A047-9415-4C25-B434-426CB2BF9618}"/>
+    <hyperlink ref="K16" r:id="rId14" xr:uid="{3A2B521F-D140-4318-8493-8BF06EB7CE19}"/>
+    <hyperlink ref="K17" r:id="rId15" xr:uid="{1AED760C-FDB4-4007-AAFB-85C5AF355101}"/>
+    <hyperlink ref="K18" r:id="rId16" xr:uid="{1822F99E-2795-416C-ABFA-ACF4E3767072}"/>
+    <hyperlink ref="K19" r:id="rId17" xr:uid="{D1ED5D14-2AD2-49A8-8B42-93D6A977870C}"/>
+    <hyperlink ref="K20" r:id="rId18" xr:uid="{84770954-E38A-47B2-B26C-22F6864AEB69}"/>
+    <hyperlink ref="K21" r:id="rId19" xr:uid="{F7DD3B06-CBCC-47BA-B570-F98882091C09}"/>
+    <hyperlink ref="K22" r:id="rId20" xr:uid="{660F984C-69AE-4D3E-9A90-45A6ECAA70CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>